--- a/Tools/price-cost estimation.xlsx
+++ b/Tools/price-cost estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17560" tabRatio="599" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="599" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="US Chips" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="25">
   <si>
     <t>Area US</t>
   </si>
@@ -90,12 +90,27 @@
   </si>
   <si>
     <t>Quantity</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>C&amp;A cost</t>
+  </si>
+  <si>
+    <t>Chips sold</t>
+  </si>
+  <si>
+    <t>PCs sold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -200,13 +215,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="24"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Bad" xfId="24" builtinId="27"/>
@@ -564,108 +581,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>6</v>
       </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>40000</v>
       </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <f>B4*B5</f>
         <v>240000</v>
       </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6">
+        <v>24952</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <f>3519</f>
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="6">
+        <f>B7/E7</f>
+        <v>7.0906507530548453</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>33341</v>
+      </c>
+      <c r="D11" s="6">
+        <f>B8+'US inventory'!E7</f>
+        <v>84.090650753054845</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*C11+E11</f>
+        <v>2813666.3867576015</v>
+      </c>
+      <c r="G11" s="6">
+        <f>F11/C11</f>
+        <v>84.390581768921194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <f>'US inventory'!C10+'US Chips'!C11</f>
+        <v>63163</v>
+      </c>
+      <c r="D12" s="6">
+        <f>'US inventory'!E10</f>
+        <v>76.398665414794451</v>
+      </c>
+      <c r="F12" s="6">
+        <f>D12*C12+E12</f>
+        <v>4825568.9035946615</v>
+      </c>
+      <c r="G12" s="6">
+        <f>F12/C12</f>
+        <v>76.398665414794451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>33341</v>
-      </c>
-      <c r="D10" s="1">
-        <f>B7+'US inventory'!D7</f>
-        <v>83</v>
-      </c>
-      <c r="E10" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F10" s="1">
-        <f>D10*C10+E10</f>
-        <v>2777303</v>
-      </c>
-      <c r="G10" s="1">
-        <f>F10/C10</f>
-        <v>83.299931015866349</v>
+      <c r="C13" s="1">
+        <f>'US inventory'!C11</f>
+        <v>20000</v>
+      </c>
+      <c r="D13" s="6">
+        <f>'US inventory'!E11</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -680,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -729,65 +821,81 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>397080</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <f>12000</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="1">
+        <f>B7/E7</f>
+        <v>33.090000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>12000</v>
       </c>
-      <c r="D10" s="1">
-        <f>205+B7</f>
-        <v>231</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="1">
+        <f>205+B8</f>
+        <v>238.09</v>
+      </c>
+      <c r="E11" s="1">
         <v>20000</v>
       </c>
-      <c r="F10" s="1">
-        <f>D10*C10+E10</f>
-        <v>2792000</v>
-      </c>
-      <c r="G10" s="1">
-        <f>F10/C10</f>
-        <v>232.66666666666666</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
+      <c r="F11" s="1">
+        <f>D11*C11+E11</f>
+        <v>2877080</v>
+      </c>
+      <c r="G11" s="1">
+        <f>F11/C11</f>
+        <v>239.75666666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -801,24 +909,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -826,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -834,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -845,19 +953,22 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>7</v>
       </c>
@@ -867,11 +978,11 @@
       <c r="C7">
         <v>33341</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -881,11 +992,12 @@
       <c r="C8" s="5">
         <v>29822</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -895,13 +1007,48 @@
       <c r="C9">
         <v>20000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>29822</v>
+      </c>
+      <c r="D10">
+        <v>2278361</v>
+      </c>
+      <c r="E10">
+        <f>D10/C10</f>
+        <v>76.398665414794451</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>20000</v>
+      </c>
+      <c r="D11">
+        <v>1440000</v>
+      </c>
+      <c r="E11">
+        <f>D11/C11</f>
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -912,18 +1059,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -958,86 +1106,150 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>54593</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <f>2438+4162</f>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="6">
+        <f>B7/E7</f>
+        <v>8.2716666666666665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>27772</v>
-      </c>
-      <c r="D10" s="1">
-        <f>$B7+'Europe inventory'!D7</f>
-        <v>81</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5000</v>
-      </c>
-      <c r="F10" s="1">
-        <f>D10*C10+E10</f>
-        <v>2254532</v>
-      </c>
-      <c r="G10" s="1">
-        <f>F10/C10</f>
-        <v>81.180037447789147</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>27772</v>
+      </c>
+      <c r="D11" s="6">
+        <f>$B8+'Europe inventory'!E7</f>
+        <v>84.271666666666661</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="6">
+        <f>D11*C11+E11</f>
+        <v>2345392.7266666666</v>
+      </c>
+      <c r="G11" s="6">
+        <f>F11/C11</f>
+        <v>84.451704114455808</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="6">
         <v>4162</v>
       </c>
-      <c r="D11" s="1">
-        <f>B7+'Europe inventory'!D8</f>
-        <v>104</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D12" s="6">
+        <f>B8+'Europe inventory'!E8</f>
+        <v>107.27166666666666</v>
+      </c>
+      <c r="E12" s="6">
         <v>5000</v>
       </c>
-      <c r="F11" s="1">
-        <f>D11*C11+E11</f>
-        <v>437848</v>
-      </c>
-      <c r="G11" s="1">
-        <f>F11/C11</f>
-        <v>105.2013455069678</v>
+      <c r="F12" s="6">
+        <f>D12*C12+E12</f>
+        <v>451464.67666666664</v>
+      </c>
+      <c r="G12" s="6">
+        <f>F12/C12</f>
+        <v>108.47301217363446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <f>'Europe inventory'!C10</f>
+        <v>25334</v>
+      </c>
+      <c r="D13" s="6">
+        <f>'Europe inventory'!E10</f>
+        <v>75.320359990526569</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" ref="F13:F14" si="0">D13*C13+E13</f>
+        <v>1908166</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13:G14" si="1">F13/C13</f>
+        <v>75.320359990526569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <f>'Europe inventory'!C11</f>
+        <v>20000</v>
+      </c>
+      <c r="D14" s="6">
+        <f>'Europe inventory'!E11</f>
+        <v>72</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>1440000</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1052,19 +1264,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1099,60 +1312,75 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>248150</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="6">
+        <f>B7/E7</f>
+        <v>41.358333333333334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="6">
         <v>6000</v>
       </c>
-      <c r="D10" s="1">
-        <f>B7+'Europe inventory'!H7</f>
-        <v>359</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="6">
+        <f>B8+'Europe inventory'!J7</f>
+        <v>380.35833333333335</v>
+      </c>
+      <c r="E11" s="6">
         <v>10000</v>
       </c>
-      <c r="F10" s="1">
-        <f>D10*C10+E10</f>
-        <v>2164000</v>
-      </c>
-      <c r="G10" s="1">
-        <f>F10/C10</f>
-        <v>360.66666666666669</v>
+      <c r="F11" s="6">
+        <f>D11*C11+E11</f>
+        <v>2292150</v>
+      </c>
+      <c r="G11" s="6">
+        <f>F11/C11</f>
+        <v>382.02499999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1167,24 +1395,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1192,7 +1420,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1200,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1211,19 +1439,25 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1233,20 +1467,20 @@
       <c r="C7">
         <v>27772</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>76</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6000</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1256,11 +1490,11 @@
       <c r="C8">
         <v>4162</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1270,8 +1504,45 @@
       <c r="C9" s="5">
         <v>25334</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>25334</v>
+      </c>
+      <c r="D10">
+        <v>1908166</v>
+      </c>
+      <c r="E10">
+        <f>D10/C10</f>
+        <v>75.320359990526569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>20000</v>
+      </c>
+      <c r="D11">
+        <v>1440000</v>
+      </c>
+      <c r="E11">
+        <f>D11/C11</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1286,19 +1557,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="6"/>
+    <col min="7" max="7" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1334,60 +1605,100 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>65063</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <f>2768</f>
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="6">
+        <f>B7/E7</f>
+        <v>23.505419075144509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="6">
         <v>8000</v>
       </c>
-      <c r="D10" s="1">
-        <f>13+'Brazil inventory'!D7</f>
+      <c r="D11" s="6">
+        <f>13+'Brazil inventory'!E7</f>
         <v>300</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="6">
         <v>10000</v>
       </c>
-      <c r="F10" s="1">
-        <f>C10*D10+E10</f>
+      <c r="F11" s="6">
+        <f>C11*D11+E11</f>
         <v>2410000</v>
       </c>
-      <c r="G10" s="1">
-        <f>F10/C10</f>
+      <c r="G11" s="6">
+        <f>F11/C11</f>
         <v>301.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'Brazil inventory'!C9</f>
+        <v>5232</v>
+      </c>
+      <c r="D12" s="6">
+        <f>'Brazil inventory'!E9</f>
+        <v>287</v>
+      </c>
+      <c r="F12" s="6">
+        <f>C12*D12+E12</f>
+        <v>1501584</v>
+      </c>
+      <c r="G12" s="6">
+        <f>F12/C12</f>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -1402,20 +1713,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1451,60 +1763,100 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>413245</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <f>2747</f>
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="6">
+        <f>B7/E7</f>
+        <v>150.43502002184201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="6">
         <v>18001</v>
       </c>
-      <c r="D10" s="1">
-        <f>B7+'Brazil inventory'!H7</f>
-        <v>961</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="D11" s="6">
+        <f>B8+'Brazil inventory'!J7</f>
+        <v>1034.4350200218421</v>
+      </c>
+      <c r="E11" s="6">
         <v>30000</v>
       </c>
-      <c r="F10" s="1">
-        <f>C10*D10+E10</f>
-        <v>17328961</v>
-      </c>
-      <c r="G10" s="1">
-        <f>F10/C10</f>
-        <v>962.66657407921787</v>
+      <c r="F11" s="6">
+        <f>C11*D11+E11</f>
+        <v>18650864.795413181</v>
+      </c>
+      <c r="G11" s="6">
+        <f>F11/C11</f>
+        <v>1036.1015941010601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'Brazil inventory'!H9</f>
+        <v>15254</v>
+      </c>
+      <c r="D12" s="6">
+        <f>'Brazil inventory'!J9</f>
+        <v>884</v>
+      </c>
+      <c r="F12" s="6">
+        <f>C12*D12+E12</f>
+        <v>13484536</v>
+      </c>
+      <c r="G12" s="6">
+        <f>F12/C12</f>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -1519,24 +1871,24 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1896,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1552,7 +1904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1563,19 +1915,25 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1585,20 +1943,20 @@
       <c r="C7">
         <v>8000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>287</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>18001</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>884</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -1608,16 +1966,48 @@
       <c r="C8" s="5">
         <v>5232</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>287</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>15254</v>
       </c>
-      <c r="H8">
+      <c r="J8">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>5232</v>
+      </c>
+      <c r="D9">
+        <v>1501584</v>
+      </c>
+      <c r="E9">
+        <f>D9/C9</f>
+        <v>287</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>15254</v>
+      </c>
+      <c r="I9">
+        <v>13484536</v>
+      </c>
+      <c r="J9">
+        <f>I9/H9</f>
         <v>884</v>
       </c>
     </row>

--- a/Tools/price-cost estimation.xlsx
+++ b/Tools/price-cost estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="599" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="US Chips" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
   <si>
     <t>Area US</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>PCs sold</t>
+  </si>
+  <si>
+    <t>become X1</t>
+  </si>
+  <si>
+    <t>Invetory</t>
+  </si>
+  <si>
+    <t>Inventory</t>
   </si>
 </sst>
 </file>
@@ -186,7 +195,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -214,8 +223,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -224,8 +235,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="24"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Bad" xfId="24" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -239,6 +252,7 @@
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -251,6 +265,7 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -581,47 +596,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="6"/>
-    <col min="7" max="7" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="6"/>
+    <col min="3" max="4" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -629,18 +648,20 @@
         <v>40000</v>
       </c>
       <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6">
         <f>B4*B5</f>
-        <v>240000</v>
+        <v>120000</v>
       </c>
       <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -648,29 +669,31 @@
         <v>24952</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>3519</f>
         <v>3519</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6">
-        <f>B7/E7</f>
-        <v>7.0906507530548453</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -681,20 +704,23 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -704,23 +730,23 @@
       <c r="C11" s="1">
         <v>33341</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>B8+'US inventory'!E7</f>
-        <v>84.090650753054845</v>
-      </c>
-      <c r="E11" s="6">
+        <v>82</v>
+      </c>
+      <c r="F11" s="6">
         <v>10000</v>
       </c>
-      <c r="F11" s="6">
-        <f>D11*C11+E11</f>
-        <v>2813666.3867576015</v>
-      </c>
       <c r="G11" s="6">
-        <f>F11/C11</f>
-        <v>84.390581768921194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <f>E11*C11+F11+D11</f>
+        <v>2743962</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" ref="H11:H16" si="0">G11/C11</f>
+        <v>82.299931015866349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -731,20 +757,20 @@
         <f>'US inventory'!C10+'US Chips'!C11</f>
         <v>63163</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <f>'US inventory'!E10</f>
         <v>76.398665414794451</v>
       </c>
-      <c r="F12" s="6">
-        <f>D12*C12+E12</f>
+      <c r="G12" s="6">
+        <f t="shared" ref="G12:G15" si="1">E12*C12+F12+D12</f>
         <v>4825568.9035946615</v>
       </c>
-      <c r="G12" s="6">
-        <f>F12/C12</f>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
         <v>76.398665414794451</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -755,13 +781,135 @@
         <f>'US inventory'!C11</f>
         <v>20000</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <f>'US inventory'!E11</f>
         <v>72</v>
       </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>1440000</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <f>'US inventory'!C12</f>
+        <v>1000</v>
+      </c>
+      <c r="E14" s="6">
+        <f>'US inventory'!E12</f>
+        <v>50</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <f>'US inventory'!C10</f>
+        <v>29822</v>
+      </c>
+      <c r="D15" s="8">
+        <v>29822</v>
+      </c>
+      <c r="E15" s="9">
+        <f>'US inventory'!E10</f>
+        <v>76.398665414794451</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>2308183</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>77.398665414794451</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C14+C15</f>
+        <v>30822</v>
+      </c>
+      <c r="G16" s="6">
+        <f>G15+G14</f>
+        <v>2358183</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>76.509733307377843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <f>'US inventory'!C13</f>
+        <v>15370</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15370</v>
+      </c>
+      <c r="E17" s="6">
+        <f>'US inventory'!E13</f>
+        <v>75.542160052049454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <f>'US inventory'!C14</f>
+        <v>15280</v>
+      </c>
+      <c r="D18" s="1">
+        <v>15280</v>
+      </c>
+      <c r="E18" s="6">
+        <f>'US inventory'!E14</f>
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -772,10 +920,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -783,26 +931,26 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="4" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -810,16 +958,16 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <f>B4*B5</f>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -829,21 +977,21 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <f>12000</f>
         <v>12000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1">
-        <f>B7/E7</f>
+        <f>B7/F7</f>
         <v>33.090000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,17 +1005,20 @@
         <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -881,16 +1032,46 @@
         <f>205+B8</f>
         <v>238.09</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>20000</v>
       </c>
-      <c r="F11" s="1">
-        <f>D11*C11+E11</f>
+      <c r="G11" s="1">
+        <f>D11*C11+F11</f>
         <v>2877080</v>
       </c>
-      <c r="G11" s="1">
-        <f>F11/C11</f>
+      <c r="H11" s="1">
+        <f>G11/C11</f>
         <v>239.75666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <f>'US inventory'!H7</f>
+        <v>6000</v>
+      </c>
+      <c r="D12" s="1">
+        <f>'US inventory'!J7</f>
+        <v>200</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G12" s="1">
+        <f>D12*C12+F12</f>
+        <v>1220000</v>
+      </c>
+      <c r="H12" s="1">
+        <f>G12/C12</f>
+        <v>203.33333333333334</v>
       </c>
     </row>
     <row r="30" spans="2:3">
@@ -909,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -921,12 +1102,12 @@
     <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -934,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -942,7 +1123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -965,10 +1146,13 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>7</v>
       </c>
@@ -981,8 +1165,21 @@
       <c r="E7">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>6000</v>
+      </c>
+      <c r="I7">
+        <v>1200000</v>
+      </c>
+      <c r="J7">
+        <f>I7/H7</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -997,7 +1194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1011,7 +1208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1029,7 +1226,7 @@
         <v>76.398665414794451</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1044,6 +1241,60 @@
       </c>
       <c r="E11">
         <f>D11/C11</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>50000</v>
+      </c>
+      <c r="E12">
+        <f>D12/C12</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>15370</v>
+      </c>
+      <c r="D13">
+        <v>1161083</v>
+      </c>
+      <c r="E13">
+        <f>D13/C13</f>
+        <v>75.542160052049454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>15280</v>
+      </c>
+      <c r="D14">
+        <v>1100160</v>
+      </c>
+      <c r="E14">
+        <f>D14/C14</f>
         <v>72</v>
       </c>
     </row>
@@ -1059,35 +1310,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="6"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="14.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="6"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1095,40 +1346,40 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <f>B4*B5</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>54593</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>2438+4162</f>
         <v>6600</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6">
-        <f>B7/E7</f>
+        <f>B7/F7</f>
         <v>8.2716666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1139,20 +1390,23 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1162,23 +1416,23 @@
       <c r="C11" s="6">
         <v>27772</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>$B8+'Europe inventory'!E7</f>
         <v>84.271666666666661</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>5000</v>
       </c>
-      <c r="F11" s="6">
-        <f>D11*C11+E11</f>
+      <c r="G11" s="6">
+        <f>E11*C11+F11+D11</f>
         <v>2345392.7266666666</v>
       </c>
-      <c r="G11" s="6">
-        <f>F11/C11</f>
+      <c r="H11" s="6">
+        <f t="shared" ref="H11:H16" si="0">G11/C11</f>
         <v>84.451704114455808</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1188,47 +1442,54 @@
       <c r="C12" s="6">
         <v>4162</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <f>B8+'Europe inventory'!E8</f>
         <v>107.27166666666666</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>5000</v>
       </c>
-      <c r="F12" s="6">
-        <f>D12*C12+E12</f>
+      <c r="G12" s="6">
+        <f t="shared" ref="G12:G15" si="1">E12*C12+F12+D12</f>
         <v>451464.67666666664</v>
       </c>
-      <c r="G12" s="6">
-        <f>F12/C12</f>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
         <v>108.47301217363446</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="13" spans="1:9">
+      <c r="A13" s="8">
+        <v>9</v>
+      </c>
+      <c r="B13" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="9">
         <f>'Europe inventory'!C10</f>
         <v>25334</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="9">
+        <v>30401</v>
+      </c>
+      <c r="E13" s="9">
         <f>'Europe inventory'!E10</f>
         <v>75.320359990526569</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13:F14" si="0">D13*C13+E13</f>
-        <v>1908166</v>
-      </c>
+      <c r="F13" s="9"/>
       <c r="G13" s="6">
-        <f t="shared" ref="G13:G14" si="1">F13/C13</f>
-        <v>75.320359990526569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <f t="shared" si="1"/>
+        <v>1938567</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="0"/>
+        <v>76.520367885055663</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1239,16 +1500,108 @@
         <f>'Europe inventory'!C11</f>
         <v>20000</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <f>'Europe inventory'!E11</f>
         <v>72</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="0"/>
-        <v>1440000</v>
+        <v>10000</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
+        <v>1450000</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <f>'Europe inventory'!C12</f>
+        <v>1000</v>
+      </c>
+      <c r="E15" s="6">
+        <f>'Europe inventory'!E12</f>
+        <v>50</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <f>C13+C15</f>
+        <v>26334</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9">
+        <v>10000</v>
+      </c>
+      <c r="G16" s="6">
+        <f>G13+G15</f>
+        <v>1988567</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>75.513290802764487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <f>'Europe inventory'!C13</f>
+        <v>16181</v>
+      </c>
+      <c r="D17" s="6">
+        <f>1.2*C17</f>
+        <v>19417.2</v>
+      </c>
+      <c r="E17" s="6">
+        <f>'Europe inventory'!E13</f>
+        <v>74.006674494777826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="6">
+        <f>'Europe inventory'!C14</f>
+        <v>14415</v>
+      </c>
+      <c r="D18" s="6">
+        <f>1.2*C18</f>
+        <v>17298</v>
+      </c>
+      <c r="E18" s="6">
+        <f>'Europe inventory'!E14</f>
         <v>72</v>
       </c>
     </row>
@@ -1264,36 +1617,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" style="6"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="14.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="6"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1301,39 +1654,39 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <f>B4*B5</f>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>248150</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
-        <f>B7/E7</f>
+        <f>B7/F7</f>
         <v>41.358333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1344,20 +1697,23 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1367,20 +1723,66 @@
       <c r="C11" s="6">
         <v>6000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>B8+'Europe inventory'!J7</f>
         <v>380.35833333333335</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>10000</v>
       </c>
-      <c r="F11" s="6">
-        <f>D11*C11+E11</f>
+      <c r="G11" s="6">
+        <f>E11*C11+F11+D11</f>
         <v>2292150</v>
       </c>
-      <c r="G11" s="6">
-        <f>F11/C11</f>
+      <c r="H11" s="6">
+        <f>G11/C11</f>
         <v>382.02499999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'Europe inventory'!H8</f>
+        <v>12000</v>
+      </c>
+      <c r="E12" s="6">
+        <f>'Europe inventory'!J8</f>
+        <v>276.60000000000002</v>
+      </c>
+      <c r="F12" s="6">
+        <v>30000</v>
+      </c>
+      <c r="G12" s="6">
+        <f>E12*C12+F12+D12</f>
+        <v>3349200.0000000005</v>
+      </c>
+      <c r="H12" s="6">
+        <f>G12/C12</f>
+        <v>279.10000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <f>'Europe inventory'!H9</f>
+        <v>12000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>144000</v>
+      </c>
+      <c r="E13" s="6">
+        <f>'Europe inventory'!J9</f>
+        <v>281.13749999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1395,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1493,6 +1895,15 @@
       <c r="E8">
         <v>99</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>12000</v>
+      </c>
+      <c r="J8">
+        <v>276.60000000000002</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5">
@@ -1508,6 +1919,19 @@
       <c r="E9" s="5">
         <v>76</v>
       </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>12000</v>
+      </c>
+      <c r="I9">
+        <v>3373650</v>
+      </c>
+      <c r="J9">
+        <f>I9/H9</f>
+        <v>281.13749999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -1542,6 +1966,60 @@
       </c>
       <c r="E11">
         <f>D11/C11</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1000</v>
+      </c>
+      <c r="D12">
+        <v>50000</v>
+      </c>
+      <c r="E12">
+        <f>D12/C12</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>16181</v>
+      </c>
+      <c r="D13">
+        <v>1197502</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="0">D13/C13</f>
+        <v>74.006674494777826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>14415</v>
+      </c>
+      <c r="D14">
+        <v>1037880</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -1557,36 +2035,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="6"/>
-    <col min="7" max="7" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="14.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1594,40 +2072,40 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <f>B4*B5</f>
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>65063</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>2768</f>
         <v>2768</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="6">
-        <f>B7/E7</f>
+        <f>B7/F7</f>
         <v>23.505419075144509</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1638,20 +2116,23 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1661,23 +2142,23 @@
       <c r="C11" s="6">
         <v>8000</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>13+'Brazil inventory'!E7</f>
         <v>300</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>10000</v>
       </c>
-      <c r="F11" s="6">
-        <f>C11*D11+E11</f>
+      <c r="G11" s="6">
+        <f>C11*E11+F11</f>
         <v>2410000</v>
       </c>
-      <c r="G11" s="6">
-        <f>F11/C11</f>
+      <c r="H11" s="6">
+        <f>G11/C11</f>
         <v>301.25</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1688,16 +2169,16 @@
         <f>'Brazil inventory'!C9</f>
         <v>5232</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <f>'Brazil inventory'!E9</f>
         <v>287</v>
       </c>
-      <c r="F12" s="6">
-        <f>C12*D12+E12</f>
+      <c r="G12" s="6">
+        <f>C12*E12+F12</f>
         <v>1501584</v>
       </c>
-      <c r="G12" s="6">
-        <f>F12/C12</f>
+      <c r="H12" s="6">
+        <f>G12/C12</f>
         <v>287</v>
       </c>
     </row>
@@ -1713,38 +2194,38 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="4" width="14.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1752,40 +2233,40 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <f>B4*B5</f>
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="1">
         <v>413245</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <f>2747</f>
         <v>2747</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="6">
-        <f>B7/E7</f>
+        <f>B7/F7</f>
         <v>150.43502002184201</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1796,20 +2277,23 @@
         <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1819,23 +2303,23 @@
       <c r="C11" s="6">
         <v>18001</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <f>B8+'Brazil inventory'!J7</f>
         <v>1034.4350200218421</v>
       </c>
-      <c r="E11" s="6">
+      <c r="F11" s="6">
         <v>30000</v>
       </c>
-      <c r="F11" s="6">
-        <f>C11*D11+E11</f>
+      <c r="G11" s="6">
+        <f>C11*E11+F11+D11</f>
         <v>18650864.795413181</v>
       </c>
-      <c r="G11" s="6">
-        <f>F11/C11</f>
+      <c r="H11" s="6">
+        <f>G11/C11</f>
         <v>1036.1015941010601</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1847,16 +2331,22 @@
         <v>15254</v>
       </c>
       <c r="D12" s="6">
+        <v>380988</v>
+      </c>
+      <c r="E12" s="6">
         <f>'Brazil inventory'!J9</f>
         <v>884</v>
       </c>
       <c r="F12" s="6">
-        <f>C12*D12+E12</f>
-        <v>13484536</v>
+        <v>50000</v>
       </c>
       <c r="G12" s="6">
-        <f>F12/C12</f>
-        <v>884</v>
+        <f>C12*E12+F12+D12</f>
+        <v>13915524</v>
+      </c>
+      <c r="H12" s="6">
+        <f>G12/C12</f>
+        <v>912.25409728595776</v>
       </c>
     </row>
   </sheetData>
@@ -1871,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2011,6 +2501,24 @@
         <v>884</v>
       </c>
     </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>5232</v>
+      </c>
+      <c r="D10">
+        <v>1501584</v>
+      </c>
+      <c r="E10">
+        <f>D10/C10</f>
+        <v>287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Tools/price-cost estimation.xlsx
+++ b/Tools/price-cost estimation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16600" tabRatio="599" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="US Chips" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Area US</t>
   </si>
@@ -111,6 +111,27 @@
   </si>
   <si>
     <t>Inventory</t>
+  </si>
+  <si>
+    <t>Price/unit</t>
+  </si>
+  <si>
+    <t>40-60</t>
+  </si>
+  <si>
+    <t>paying</t>
+  </si>
+  <si>
+    <t>not including sale office cost</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>50-20-30</t>
+  </si>
+  <si>
+    <t>50-30-20</t>
   </si>
 </sst>
 </file>
@@ -195,7 +216,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -225,6 +246,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -238,7 +267,7 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="37">
     <cellStyle name="Bad" xfId="24" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -253,6 +282,10 @@
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -266,6 +299,10 @@
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -599,7 +636,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -742,7 +779,7 @@
         <v>2743962</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ref="H11:H16" si="0">G11/C11</f>
+        <f t="shared" ref="H11:H18" si="0">G11/C11</f>
         <v>82.299931015866349</v>
       </c>
     </row>
@@ -869,7 +906,7 @@
         <v>76.509733307377843</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -887,8 +924,19 @@
         <f>'US inventory'!E13</f>
         <v>75.542160052049454</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G17" s="6">
+        <f>E17*C17+F17</f>
+        <v>1181083</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="0"/>
+        <v>76.843396226415095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -905,6 +953,17 @@
       <c r="E18" s="6">
         <f>'US inventory'!E14</f>
         <v>72</v>
+      </c>
+      <c r="F18" s="6">
+        <v>20000</v>
+      </c>
+      <c r="G18" s="6">
+        <f>E18*C18+F18</f>
+        <v>1120160</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="0"/>
+        <v>73.308900523560212</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +982,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1016,7 +1075,9 @@
       <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
@@ -1043,6 +1104,9 @@
         <f>G11/C11</f>
         <v>239.75666666666666</v>
       </c>
+      <c r="I11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1">
@@ -1074,12 +1138,46 @@
         <v>203.33333333333334</v>
       </c>
     </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <f>'US inventory'!H8</f>
+        <v>15000</v>
+      </c>
+      <c r="D13" s="1">
+        <f>'US inventory'!J8</f>
+        <v>270</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G13" s="1">
+        <f>D13*C13+F13</f>
+        <v>4070000</v>
+      </c>
+      <c r="H13" s="1">
+        <f>G13/C13</f>
+        <v>271.33333333333331</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="30" spans="2:3">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1090,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1102,12 +1200,12 @@
     <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1123,7 +1221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1151,8 +1249,11 @@
       <c r="J6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1179,7 +1280,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>8</v>
       </c>
@@ -1193,8 +1294,25 @@
       <c r="E8" s="5">
         <v>77</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G8" s="5">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5">
+        <v>15000</v>
+      </c>
+      <c r="I8">
+        <f>H8*K8</f>
+        <v>4050000</v>
+      </c>
+      <c r="J8">
+        <f>I8/H8</f>
+        <v>270</v>
+      </c>
+      <c r="K8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1208,7 +1326,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1226,7 +1344,7 @@
         <v>76.398665414794451</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1244,7 +1362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1262,7 +1380,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1280,7 +1398,7 @@
         <v>75.542160052049454</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1310,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1325,12 +1443,12 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1338,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1346,7 +1464,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1355,7 +1473,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1370,7 +1488,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1379,7 +1497,7 @@
         <v>8.2716666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1406,7 +1524,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1428,11 +1546,11 @@
         <v>2345392.7266666666</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" ref="H11:H16" si="0">G11/C11</f>
+        <f t="shared" ref="H11:H18" si="0">G11/C11</f>
         <v>84.451704114455808</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1458,7 +1576,7 @@
         <v>108.47301217363446</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="8">
         <v>9</v>
       </c>
@@ -1489,7 +1607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -1515,8 +1633,12 @@
         <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="1">
+        <f>50*3.74</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -1540,7 +1662,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="8">
         <v>9</v>
       </c>
@@ -1565,7 +1687,7 @@
         <v>75.513290802764487</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1584,8 +1706,16 @@
         <f>'Europe inventory'!E13</f>
         <v>74.006674494777826</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="6">
+        <f>E17*C17</f>
+        <v>1197502</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="0"/>
+        <v>74.006674494777826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -1602,6 +1732,14 @@
       </c>
       <c r="E18" s="6">
         <f>'Europe inventory'!E14</f>
+        <v>72</v>
+      </c>
+      <c r="G18" s="6">
+        <f>E18*C18</f>
+        <v>1037880</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
@@ -1617,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1629,16 +1767,17 @@
     <col min="2" max="2" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="6" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="6"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="7" width="10.83203125" style="6"/>
+    <col min="8" max="8" width="14.33203125" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1646,7 +1785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1654,7 +1793,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1802,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1677,7 +1816,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1686,7 +1825,12 @@
         <v>41.358333333333334</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="9" spans="1:10">
+      <c r="H9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1711,9 +1855,12 @@
       <c r="H10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1739,7 +1886,7 @@
         <v>382.02499999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1766,7 +1913,7 @@
         <v>279.10000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1784,9 +1931,90 @@
         <f>'Europe inventory'!J9</f>
         <v>281.13749999999999</v>
       </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <f>E13*C13+F13+D13</f>
+        <v>3517650</v>
+      </c>
+      <c r="H13" s="6">
+        <f>G13/C13</f>
+        <v>293.13749999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="6">
+        <f>'Europe inventory'!H15</f>
+        <v>4000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <f>'Europe inventory'!J15</f>
+        <v>220</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f>E14*C14+F14+D14</f>
+        <v>880000</v>
+      </c>
+      <c r="H14" s="6">
+        <f>G14/C14</f>
+        <v>220</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <f>'Europe inventory'!H16</f>
+        <v>10000</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <f>'Europe inventory'!J16</f>
+        <v>250</v>
+      </c>
+      <c r="F15" s="6">
+        <v>30000</v>
+      </c>
+      <c r="G15" s="6">
+        <f>E15*C15+F15+D15</f>
+        <v>2530000</v>
+      </c>
+      <c r="H15" s="6">
+        <f>G15/C15</f>
+        <v>253</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1797,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1809,12 +2037,12 @@
     <col min="6" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1822,7 +2050,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1830,7 +2058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1858,8 +2086,11 @@
       <c r="J6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1882,7 +2113,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1905,7 +2136,7 @@
         <v>276.60000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1933,7 +2164,7 @@
         <v>281.13749999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1951,7 +2182,7 @@
         <v>75.320359990526569</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1969,7 +2200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1987,7 +2218,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2005,7 +2236,7 @@
         <v>74.006674494777826</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2023,8 +2254,53 @@
         <v>72</v>
       </c>
     </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>4000</v>
+      </c>
+      <c r="I15">
+        <f>H15*K15</f>
+        <v>880000</v>
+      </c>
+      <c r="J15">
+        <f>I15/H15</f>
+        <v>220</v>
+      </c>
+      <c r="K15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>10000</v>
+      </c>
+      <c r="I16">
+        <f>H16*K16</f>
+        <v>2500000</v>
+      </c>
+      <c r="J16">
+        <f>I16/H16</f>
+        <v>250</v>
+      </c>
+      <c r="K16">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
